--- a/SalemQA/TestResult/SalemResult.xlsx
+++ b/SalemQA/TestResult/SalemResult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SalemQA\SalemQA\TestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79899ED4-E2BC-4A19-B8BE-3DF9167CD034}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DEE419-F80E-4157-A66A-C08DD43FFFF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1704" yWindow="1764" windowWidth="13824" windowHeight="7248" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,25 +115,26 @@
     </r>
   </si>
   <si>
+    <t>Software cannot be released without an user.</t>
+  </si>
+  <si>
+    <t>Software cannot be released  without an org admin.</t>
+  </si>
+  <si>
+    <t>Verify localization for Org Admin.</t>
+  </si>
+  <si>
+    <t>Localization for Org Admin.</t>
+  </si>
+  <si>
+    <t>Org Admin can create another org admin</t>
+  </si>
+  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>Able to release software without org admin</t>
-  </si>
-  <si>
-    <t>Software cannot be released without an user.</t>
-  </si>
-  <si>
-    <t>Software cannot be released  without an org admin.</t>
-  </si>
-  <si>
-    <t>Verify localization for Org Admin.</t>
-  </si>
-  <si>
-    <t>Localization for Org Admin.</t>
-  </si>
-  <si>
-    <t>Org Admin can create another org admin</t>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//tbody/tr[1]/td[1]/center[1]"}
+  (Session info: chrome=89.0.4389.128)</t>
   </si>
 </sst>
 </file>
@@ -722,17 +723,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
@@ -759,7 +760,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -776,7 +777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -794,32 +795,32 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>8</v>
@@ -828,15 +829,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>8</v>
@@ -845,7 +846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>

--- a/SalemQA/TestResult/SalemResult.xlsx
+++ b/SalemQA/TestResult/SalemResult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SalemQA\SalemQA\TestResult\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Source\Repos\SalemQA\SalemQA\TestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DEE419-F80E-4157-A66A-C08DD43FFFF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDF0E56-C51C-4983-8A2D-7E4BEDF198CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1704" yWindow="1764" windowWidth="13824" windowHeight="7248" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="228" yWindow="0" windowWidth="22764" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"xpath","selector":"//tbody/tr[1]/td[1]/center[1]"}
-  (Session info: chrome=89.0.4389.128)</t>
+  (Session info: chrome=90.0.4430.93)</t>
   </si>
 </sst>
 </file>

--- a/SalemQA/TestResult/SalemResult.xlsx
+++ b/SalemQA/TestResult/SalemResult.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Source\Repos\SalemQA\SalemQA\TestResult\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\source\repos\SalemQA\SalemQA\TestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDF0E56-C51C-4983-8A2D-7E4BEDF198CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AF44BA-EB74-4CC9-9912-A5DE256BA68C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="0" windowWidth="22764" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="0" windowWidth="10980" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <r>
       <rPr>
@@ -128,13 +128,6 @@
   </si>
   <si>
     <t>Org Admin can create another org admin</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//tbody/tr[1]/td[1]/center[1]"}
-  (Session info: chrome=90.0.4430.93)</t>
   </si>
 </sst>
 </file>
@@ -795,7 +788,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -806,10 +799,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
